--- a/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453AA4E-54C1-445A-BD57-F16C0C94FF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3188EFF8-6478-4581-9455-B34E86F9EB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="190">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -961,7 +961,7 @@
   </si>
   <si>
     <r>
-      <t>第三次项目计划汇报（总分5</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -972,7 +972,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
+      <t>9.7</t>
     </r>
     <r>
       <rPr>
@@ -983,23 +983,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）10.</t>
+      <t>（每人加一分）</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.7（每人加一分）（已加）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业11.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚20分钟提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚22分钟提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚一天交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次需求分析汇报（总分55）10.29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4760,10 +4765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4776,9 +4781,10 @@
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>143</v>
       </c>
@@ -4790,7 +4796,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4830,8 +4836,11 @@
       <c r="M2" s="7" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4869,8 +4878,11 @@
       <c r="M3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4896,8 +4908,9 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4935,8 +4948,11 @@
       <c r="M5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4974,8 +4990,11 @@
       <c r="M6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5013,8 +5032,11 @@
       <c r="M7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -5052,8 +5074,11 @@
       <c r="M8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5091,8 +5116,11 @@
       <c r="M9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -5130,8 +5158,11 @@
       <c r="M10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5169,8 +5200,11 @@
       <c r="M11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5210,8 +5244,11 @@
       <c r="M12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5245,8 +5282,9 @@
       <c r="M13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5284,8 +5322,9 @@
       <c r="M14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5321,8 +5360,9 @@
       <c r="M15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5352,8 +5392,9 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5391,8 +5432,11 @@
       <c r="M17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5428,8 +5472,11 @@
       <c r="M18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5463,8 +5510,11 @@
       <c r="M19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5500,8 +5550,11 @@
       <c r="M20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5539,8 +5592,11 @@
       <c r="M21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5578,8 +5634,9 @@
       <c r="M22" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5615,8 +5672,11 @@
       <c r="M23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5652,8 +5712,9 @@
       <c r="M24" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5687,8 +5748,11 @@
       <c r="M25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5726,8 +5790,11 @@
       <c r="M26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5763,8 +5830,11 @@
       <c r="M27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5800,8 +5870,9 @@
       <c r="M28" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5831,8 +5902,9 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5862,8 +5934,9 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5903,8 +5976,11 @@
       <c r="M31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5944,8 +6020,11 @@
       <c r="M32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5983,8 +6062,11 @@
       <c r="M33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -6022,8 +6104,11 @@
       <c r="M34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -6061,8 +6146,11 @@
       <c r="M35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -6100,8 +6188,11 @@
       <c r="M36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -6139,8 +6230,11 @@
       <c r="M37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -6180,8 +6274,11 @@
       <c r="M38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -6221,8 +6318,11 @@
       <c r="M39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -6262,8 +6362,11 @@
       <c r="M40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -6301,8 +6404,11 @@
       <c r="M41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -6340,8 +6446,11 @@
       <c r="M42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -6381,8 +6490,11 @@
       <c r="M43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -6420,8 +6532,11 @@
       <c r="M44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -6459,8 +6574,11 @@
       <c r="M45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -6496,8 +6614,11 @@
       <c r="M46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6531,8 +6652,11 @@
       <c r="M47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L48" s="1"/>
     </row>
   </sheetData>
@@ -6550,8 +6674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6569,7 +6693,7 @@
         <v>164</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -6597,7 +6721,7 @@
         <v>51.36</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>

--- a/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3188EFF8-6478-4581-9455-B34E86F9EB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF424F85-9DAD-4DC6-B93A-2DE2C0420861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="项目评审表" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作业情况!$E$2:$E$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作业情况!$A$2:$O$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="194">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -518,10 +518,6 @@
   </si>
   <si>
     <t>个人作业1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组作业9.22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -675,40 +671,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小组作业9.29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组作业10.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>缺勤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第二次项目计划汇报（总分80）10.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>小组作业10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组作业10.21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -922,23 +889,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>二手交易平台）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>小组作业10.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -988,10 +938,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小组作业11.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>晚20分钟提交</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1005,6 +951,89 @@
   </si>
   <si>
     <t>第三次需求分析汇报（总分55）10.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小组作业9.22（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目介绍）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小组作业11.3（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SRS修订）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业10.27（SRS）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业10.20（可行性分析）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业10.13（项目计划修订）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业10.6（项目计划）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业9.29（项目介绍修订）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业11.10（总体设计）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>补交）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（补交）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（晚四十分钟）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1735,7 +1764,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2782,7 +2811,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2939,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2997,13 +3026,13 @@
         <v>32201171</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="2"/>
@@ -3028,13 +3057,13 @@
         <v>32201170</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3059,11 +3088,11 @@
         <v>32201039</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
@@ -3090,11 +3119,11 @@
         <v>32201062</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3289,7 +3318,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
@@ -4270,7 +4299,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -4569,7 +4598,7 @@
         <v>46</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
@@ -4631,13 +4660,13 @@
         <v>32201171</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
@@ -4666,13 +4695,13 @@
         <v>32201170</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -4699,11 +4728,11 @@
         <v>32201039</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -4730,7 +4759,7 @@
         <v>32201062</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4765,10 +4794,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-  <dimension ref="A1:N48"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4784,7 +4814,7 @@
     <col min="14" max="14" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>143</v>
       </c>
@@ -4796,7 +4826,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4818,29 +4848,32 @@
       <c r="G2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>162</v>
+      <c r="H2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="N2" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4881,8 +4914,9 @@
       <c r="N3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4896,7 +4930,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4909,8 +4943,9 @@
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4951,8 +4986,9 @@
       <c r="N5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4993,8 +5029,9 @@
       <c r="N6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5015,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -5027,16 +5064,17 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M7" s="3">
         <v>1</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -5075,10 +5113,11 @@
         <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5117,24 +5156,25 @@
         <v>1</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -5142,27 +5182,30 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="H10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
       <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="3">
-        <v>1</v>
+      <c r="L10" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="M10" s="3">
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5183,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -5195,30 +5238,31 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M11" s="3">
         <v>1</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -5229,9 +5273,7 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="3">
         <v>1</v>
       </c>
@@ -5241,14 +5283,15 @@
       <c r="L12" s="3">
         <v>1</v>
       </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5283,33 +5326,36 @@
         <v>1</v>
       </c>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>157</v>
+      <c r="G14" s="3">
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
@@ -5322,9 +5368,14 @@
       <c r="M14" s="3">
         <v>1</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5361,40 +5412,56 @@
         <v>1</v>
       </c>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
       <c r="K16" s="5">
         <v>1</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5435,8 +5502,9 @@
       <c r="N17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5473,10 +5541,11 @@
         <v>1</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5513,22 +5582,23 @@
       <c r="N19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -5540,7 +5610,9 @@
         <v>1</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
       <c r="K20" s="5">
         <v>1</v>
       </c>
@@ -5550,11 +5622,14 @@
       <c r="M20" s="3">
         <v>1</v>
       </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5595,22 +5670,23 @@
       <c r="N21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -5622,21 +5698,24 @@
         <v>1</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="5">
         <v>1</v>
       </c>
       <c r="L22" s="3">
         <v>1</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5673,10 +5752,11 @@
         <v>1</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5710,11 +5790,12 @@
         <v>1</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5751,8 +5832,9 @@
       <c r="N25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5793,8 +5875,9 @@
       <c r="N26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5833,8 +5916,9 @@
       <c r="N27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5868,11 +5952,12 @@
         <v>1</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5903,8 +5988,9 @@
       <c r="L29" s="2"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5935,22 +6021,23 @@
       <c r="L30" s="2"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -5979,52 +6066,56 @@
       <c r="N31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
+      <c r="G32" s="3"/>
       <c r="H32" s="3">
         <v>1</v>
       </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5">
-        <v>1</v>
+      <c r="I32" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="L32" s="3">
         <v>1</v>
       </c>
-      <c r="M32" s="3">
-        <v>1</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -6065,8 +6156,9 @@
       <c r="N33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -6107,8 +6199,9 @@
       <c r="N34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -6149,8 +6242,9 @@
       <c r="N35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -6191,27 +6285,30 @@
       <c r="N36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
       <c r="H37" s="3">
         <v>1</v>
       </c>
@@ -6233,22 +6330,25 @@
       <c r="N37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -6277,66 +6377,68 @@
       <c r="N38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
       </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
+      <c r="G39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="3">
         <v>1</v>
       </c>
       <c r="K39" s="5">
         <v>1</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>167</v>
+      <c r="L39" s="3">
+        <v>1</v>
       </c>
       <c r="M39" s="3">
         <v>1</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -6365,8 +6467,11 @@
       <c r="N40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -6407,8 +6512,9 @@
       <c r="N41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -6449,29 +6555,28 @@
       <c r="N42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
       </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
+      <c r="G43" s="3"/>
       <c r="H43" s="3">
         <v>1</v>
       </c>
@@ -6493,8 +6598,11 @@
       <c r="N43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -6502,13 +6610,13 @@
         <v>32201171</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3">
@@ -6535,8 +6643,9 @@
       <c r="N44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -6544,17 +6653,17 @@
         <v>32201170</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -6577,8 +6686,9 @@
       <c r="N45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -6586,11 +6696,11 @@
         <v>32201039</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -6617,8 +6727,11 @@
       <c r="N46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6626,7 +6739,7 @@
         <v>32201062</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -6655,12 +6768,22 @@
       <c r="N47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L48" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="E2:E47" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}"/>
+  <autoFilter ref="A2:O47" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:O46">
+      <sortCondition ref="E3:E47"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
@@ -6674,7 +6797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6690,10 +6813,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -6701,7 +6824,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B2" s="3">
         <v>58.83</v>
@@ -6715,13 +6838,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3">
         <v>51.36</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -6729,7 +6852,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B4" s="3">
         <v>63.73</v>
@@ -6743,7 +6866,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B5" s="3">
         <v>56.92</v>
@@ -6757,7 +6880,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B6" s="3">
         <v>58</v>
@@ -6771,7 +6894,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B7" s="3">
         <v>61.5</v>
@@ -6785,7 +6908,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B8" s="3">
         <v>51.78</v>
@@ -6799,7 +6922,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B9" s="3">
         <v>56.7</v>
@@ -6813,7 +6936,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B10" s="3">
         <v>53.71</v>
@@ -6827,7 +6950,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B11" s="3">
         <v>52.57</v>
@@ -6841,7 +6964,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B12" s="3">
         <v>59.54</v>
@@ -6855,7 +6978,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B13" s="3">
         <v>47.92</v>
@@ -6869,7 +6992,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B14" s="3">
         <v>63.44</v>
@@ -6883,7 +7006,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B15" s="3">
         <v>54.73</v>

--- a/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3188EFF8-6478-4581-9455-B34E86F9EB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11444AD4-087A-4021-A66E-7B6ECCF18F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="195">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1005,6 +1005,25 @@
   </si>
   <si>
     <t>第三次需求分析汇报（总分55）10.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢答+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.12因任务没完成全组-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.12因任务没完成-2</t>
+  </si>
+  <si>
+    <t>11.12因任务没完成-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.12因任务没完成-4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1151,7 +1170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,6 +1200,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1523,115 +1545,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" customWidth="1"/>
+    <col min="11" max="11" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-    </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="11"/>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="11"/>
-    </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="11"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="11"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1690,7 +1713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1721,7 +1744,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1752,7 +1775,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1773,7 +1796,9 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1783,7 +1808,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1802,7 +1827,9 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1814,7 +1841,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1835,7 +1862,9 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1845,7 +1874,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1876,7 +1905,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1907,7 +1936,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1930,7 +1959,9 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1940,7 +1971,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1961,7 +1992,9 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1971,7 +2004,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2004,7 +2037,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2035,7 +2068,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2068,7 +2101,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2099,7 +2132,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2132,7 +2165,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2163,7 +2196,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2184,7 +2217,9 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -2194,7 +2229,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2225,7 +2260,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2258,7 +2293,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2289,7 +2324,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2322,7 +2357,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2343,7 +2378,9 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -2353,7 +2390,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2384,7 +2421,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2415,7 +2452,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2446,7 +2483,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2477,7 +2514,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2508,7 +2545,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2539,7 +2576,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2570,7 +2607,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2603,7 +2640,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2636,7 +2673,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2667,7 +2704,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2698,7 +2735,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="31.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2719,7 +2756,9 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="K37" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -2729,7 +2768,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2760,7 +2799,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2795,7 +2834,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2828,7 +2867,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="31.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2851,7 +2890,9 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -2861,7 +2902,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2894,7 +2935,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2925,7 +2966,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2956,7 +2997,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2979,7 +3020,9 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="K45" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -2989,7 +3032,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -3020,7 +3063,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -3051,7 +3094,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -3082,7 +3125,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -3135,43 +3178,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E054571-BFA3-4C2E-8A90-163875D0870A}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3242,7 +3285,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3275,7 +3318,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3308,7 +3351,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3341,7 +3384,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3374,7 +3417,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3407,7 +3450,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3440,7 +3483,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3473,7 +3516,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3508,7 +3551,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3541,7 +3584,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3576,7 +3619,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3609,7 +3652,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3644,7 +3687,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3677,7 +3720,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3712,7 +3755,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3745,7 +3788,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3778,7 +3821,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3811,7 +3854,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3846,7 +3889,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3879,7 +3922,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3914,7 +3957,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3947,7 +3990,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3980,7 +4023,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4013,7 +4056,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4046,7 +4089,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4079,7 +4122,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4112,7 +4155,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4145,7 +4188,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4178,7 +4221,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4213,7 +4256,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4248,7 +4291,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4283,7 +4326,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4316,7 +4359,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4349,7 +4392,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4382,7 +4425,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4417,7 +4460,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4452,7 +4495,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4487,7 +4530,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4522,7 +4565,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4555,7 +4598,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4588,7 +4631,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4623,7 +4666,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4658,7 +4701,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4691,7 +4734,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4722,7 +4765,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4767,36 +4810,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" customWidth="1"/>
+    <col min="9" max="10" width="12.46484375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.59765625" customWidth="1"/>
+    <col min="14" max="14" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4840,7 +4883,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4882,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4910,7 +4953,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4952,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4994,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5036,7 +5079,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -5078,7 +5121,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5120,7 +5163,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -5162,7 +5205,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5204,7 +5247,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5248,7 +5291,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5284,7 +5327,7 @@
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5324,7 +5367,7 @@
       </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5362,7 +5405,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5394,7 +5437,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5436,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5476,7 +5519,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5514,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5554,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5596,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5636,7 +5679,7 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5676,7 +5719,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5714,7 +5757,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5752,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5794,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5834,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5872,7 +5915,7 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5904,7 +5947,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5936,7 +5979,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5980,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -6024,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -6066,7 +6109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -6108,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -6150,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -6192,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -6234,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -6278,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -6322,7 +6365,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -6366,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -6408,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -6450,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -6494,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -6536,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -6578,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -6618,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6656,7 +6699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L48" s="1"/>
     </row>
   </sheetData>
@@ -6674,18 +6717,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -6699,7 +6742,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>178</v>
       </c>
@@ -6713,7 +6756,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>172</v>
       </c>
@@ -6727,7 +6770,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>171</v>
       </c>
@@ -6741,7 +6784,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>180</v>
       </c>
@@ -6755,7 +6798,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>170</v>
       </c>
@@ -6769,7 +6812,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>168</v>
       </c>
@@ -6783,7 +6826,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>174</v>
       </c>
@@ -6797,7 +6840,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>175</v>
       </c>
@@ -6811,7 +6854,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>173</v>
       </c>
@@ -6825,7 +6868,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>176</v>
       </c>
@@ -6839,7 +6882,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>181</v>
       </c>
@@ -6853,7 +6896,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>169</v>
       </c>
@@ -6867,7 +6910,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>177</v>
       </c>
@@ -6881,7 +6924,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>179</v>
       </c>

--- a/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF424F85-9DAD-4DC6-B93A-2DE2C0420861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12ED113-07CF-412C-B7D3-6B5E10746281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="197">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1034,6 +1034,31 @@
   </si>
   <si>
     <t>1（晚四十分钟）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次项目设计评审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>扣0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业11.17（详细设计）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1552,18 +1577,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1611,7 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1623,7 +1648,7 @@
       </c>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1660,7 +1685,7 @@
       </c>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1719,7 +1744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1750,7 +1775,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1781,7 +1806,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1812,7 +1837,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1843,7 +1868,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1874,7 +1899,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1905,7 +1930,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1936,7 +1961,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1969,7 +1994,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2000,7 +2025,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2033,7 +2058,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2064,7 +2089,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2097,7 +2122,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2128,7 +2153,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2161,7 +2186,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2192,7 +2217,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2223,7 +2248,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2254,7 +2279,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2287,7 +2312,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2318,7 +2343,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2351,7 +2376,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2382,7 +2407,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2413,7 +2438,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2444,7 +2469,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2475,7 +2500,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2506,7 +2531,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2537,7 +2562,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2568,7 +2593,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2599,7 +2624,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2632,7 +2657,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2665,7 +2690,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2696,7 +2721,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2727,7 +2752,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2758,7 +2783,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2789,7 +2814,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2824,7 +2849,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2857,7 +2882,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2890,7 +2915,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2923,7 +2948,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2954,7 +2979,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2985,7 +3010,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -3018,7 +3043,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -3049,7 +3074,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -3080,7 +3105,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -3111,7 +3136,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -3164,16 +3189,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E054571-BFA3-4C2E-8A90-163875D0870A}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>142</v>
       </c>
@@ -3200,7 +3225,7 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3271,7 +3296,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3304,7 +3329,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3337,7 +3362,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3370,7 +3395,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3403,7 +3428,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3436,7 +3461,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3469,7 +3494,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3502,7 +3527,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3537,7 +3562,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3570,7 +3595,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3605,7 +3630,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3638,7 +3663,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3673,7 +3698,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3706,7 +3731,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3741,7 +3766,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3774,7 +3799,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3807,7 +3832,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3840,7 +3865,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3875,7 +3900,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3908,7 +3933,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3943,7 +3968,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3976,7 +4001,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -4009,7 +4034,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4042,7 +4067,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4075,7 +4100,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4108,7 +4133,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4141,7 +4166,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4174,7 +4199,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4207,7 +4232,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4242,7 +4267,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4277,7 +4302,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4312,7 +4337,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4345,7 +4370,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4378,7 +4403,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4411,7 +4436,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4446,7 +4471,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4481,7 +4506,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4516,7 +4541,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4551,7 +4576,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4584,7 +4609,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4617,7 +4642,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4652,7 +4677,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4687,7 +4712,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4720,7 +4745,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4751,7 +4776,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4795,26 +4820,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="10" width="12.44140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>143</v>
       </c>
@@ -4826,7 +4851,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4872,8 +4897,11 @@
       <c r="O2" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4915,8 +4943,9 @@
         <v>1</v>
       </c>
       <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4944,8 +4973,9 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4987,8 +5017,9 @@
         <v>1</v>
       </c>
       <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -5030,8 +5061,9 @@
         <v>1</v>
       </c>
       <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5073,8 +5105,9 @@
         <v>180</v>
       </c>
       <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -5116,8 +5149,9 @@
         <v>180</v>
       </c>
       <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5159,8 +5193,9 @@
         <v>180</v>
       </c>
       <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>37</v>
       </c>
@@ -5204,8 +5239,11 @@
         <v>179</v>
       </c>
       <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5247,8 +5285,9 @@
         <v>179</v>
       </c>
       <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -5290,8 +5329,11 @@
       <c r="O12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5327,8 +5369,9 @@
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -5374,8 +5417,11 @@
       <c r="O14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5413,8 +5459,9 @@
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>36</v>
       </c>
@@ -5460,8 +5507,11 @@
       <c r="O16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5503,8 +5553,9 @@
         <v>1</v>
       </c>
       <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5544,8 +5595,9 @@
         <v>181</v>
       </c>
       <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5583,8 +5635,9 @@
         <v>1</v>
       </c>
       <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>8</v>
       </c>
@@ -5628,8 +5681,11 @@
       <c r="O20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5671,8 +5727,9 @@
         <v>1</v>
       </c>
       <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -5714,8 +5771,11 @@
       <c r="O22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5755,8 +5815,9 @@
         <v>181</v>
       </c>
       <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5794,8 +5855,9 @@
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5833,8 +5895,9 @@
         <v>1</v>
       </c>
       <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5876,8 +5939,9 @@
         <v>1</v>
       </c>
       <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5917,8 +5981,9 @@
         <v>1</v>
       </c>
       <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5956,8 +6021,9 @@
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5989,8 +6055,9 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -6022,8 +6089,9 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6069,8 +6137,11 @@
       <c r="O31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>14</v>
       </c>
@@ -6114,8 +6185,11 @@
       <c r="O32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -6157,8 +6231,9 @@
         <v>1</v>
       </c>
       <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -6200,8 +6275,9 @@
         <v>1</v>
       </c>
       <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -6243,8 +6319,9 @@
         <v>1</v>
       </c>
       <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -6286,8 +6363,9 @@
         <v>1</v>
       </c>
       <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41</v>
       </c>
@@ -6333,8 +6411,11 @@
       <c r="O37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -6380,8 +6461,11 @@
       <c r="O38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>12</v>
       </c>
@@ -6423,8 +6507,11 @@
       <c r="O39" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>29</v>
       </c>
@@ -6470,8 +6557,11 @@
       <c r="O40" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -6513,8 +6603,9 @@
         <v>1</v>
       </c>
       <c r="O41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -6556,8 +6647,9 @@
         <v>1</v>
       </c>
       <c r="O42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="7"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>35</v>
       </c>
@@ -6601,8 +6693,11 @@
       <c r="O43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -6644,8 +6739,9 @@
         <v>1</v>
       </c>
       <c r="O44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -6687,8 +6783,9 @@
         <v>1</v>
       </c>
       <c r="O45" s="7"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -6730,8 +6827,11 @@
       <c r="O46" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6769,8 +6869,9 @@
         <v>1</v>
       </c>
       <c r="O47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="7"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L48" s="1"/>
     </row>
   </sheetData>
@@ -6798,17 +6899,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -6818,11 +6919,13 @@
       <c r="C1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>173</v>
       </c>
@@ -6836,7 +6939,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>167</v>
       </c>
@@ -6850,7 +6953,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>166</v>
       </c>
@@ -6864,7 +6967,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>175</v>
       </c>
@@ -6878,7 +6981,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>165</v>
       </c>
@@ -6892,7 +6995,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>163</v>
       </c>
@@ -6906,7 +7009,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>169</v>
       </c>
@@ -6916,11 +7019,13 @@
       <c r="C8" s="3">
         <v>39.57</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>170</v>
       </c>
@@ -6934,7 +7039,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>168</v>
       </c>
@@ -6948,7 +7053,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>171</v>
       </c>
@@ -6962,7 +7067,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>176</v>
       </c>
@@ -6976,7 +7081,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>164</v>
       </c>
@@ -6990,7 +7095,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>172</v>
       </c>
@@ -7004,7 +7109,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>174</v>
       </c>

--- a/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF424F85-9DAD-4DC6-B93A-2DE2C0420861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D21AFE-8BC0-4379-8B07-879CF127E3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="203">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1034,6 +1034,41 @@
   </si>
   <si>
     <t>1（晚四十分钟）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（晚四十分钟）</t>
+  </si>
+  <si>
+    <t>晚83分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚四个半小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚2分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚3小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚9h44min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次总体设计汇报（总分55分）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1556,14 +1591,14 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1621,7 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1623,7 +1658,7 @@
       </c>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1660,7 +1695,7 @@
       </c>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1719,7 +1754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1750,7 +1785,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1781,7 +1816,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1812,7 +1847,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1843,7 +1878,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1874,7 +1909,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1905,7 +1940,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1936,7 +1971,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1969,7 +2004,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2000,7 +2035,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2033,7 +2068,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2064,7 +2099,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2097,7 +2132,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2128,7 +2163,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2161,7 +2196,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2192,7 +2227,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2223,7 +2258,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2254,7 +2289,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2287,7 +2322,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2318,7 +2353,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2351,7 +2386,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2382,7 +2417,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2413,7 +2448,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2444,7 +2479,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2475,7 +2510,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2506,7 +2541,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2537,7 +2572,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2568,7 +2603,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2599,7 +2634,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2632,7 +2667,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2665,7 +2700,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2696,7 +2731,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2727,7 +2762,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2758,7 +2793,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2789,7 +2824,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2824,7 +2859,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2857,7 +2892,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2890,7 +2925,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2923,7 +2958,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2954,7 +2989,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2985,7 +3020,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -3018,7 +3053,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -3049,7 +3084,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -3080,7 +3115,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -3111,7 +3146,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -3168,12 +3203,12 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>142</v>
       </c>
@@ -3200,7 +3235,7 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3271,7 +3306,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3304,7 +3339,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3337,7 +3372,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3370,7 +3405,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3403,7 +3438,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3436,7 +3471,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3469,7 +3504,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3502,7 +3537,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3537,7 +3572,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3570,7 +3605,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3605,7 +3640,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3638,7 +3673,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3673,7 +3708,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3706,7 +3741,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3741,7 +3776,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3774,7 +3809,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3807,7 +3842,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3840,7 +3875,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3875,7 +3910,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3908,7 +3943,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3943,7 +3978,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3976,7 +4011,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -4009,7 +4044,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4042,7 +4077,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4075,7 +4110,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4108,7 +4143,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4141,7 +4176,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4174,7 +4209,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4207,7 +4242,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4242,7 +4277,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4277,7 +4312,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4312,7 +4347,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4345,7 +4380,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4378,7 +4413,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4411,7 +4446,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4446,7 +4481,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4481,7 +4516,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4516,7 +4551,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4551,7 +4586,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4584,7 +4619,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4617,7 +4652,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4652,7 +4687,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4687,7 +4722,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4720,7 +4755,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4751,7 +4786,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4794,27 +4829,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" customWidth="1"/>
+    <col min="9" max="9" width="9.86328125" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.796875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.53125" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>143</v>
       </c>
@@ -4826,7 +4863,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4872,8 +4909,14 @@
       <c r="O2" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4914,9 +4957,17 @@
       <c r="N3" s="3">
         <v>1</v>
       </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4943,9 +4994,17 @@
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4986,9 +5045,17 @@
       <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -5029,9 +5096,17 @@
       <c r="N6" s="3">
         <v>1</v>
       </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5072,9 +5147,17 @@
       <c r="N7" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -5115,9 +5198,17 @@
       <c r="N8" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5158,9 +5249,17 @@
       <c r="N9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>37</v>
       </c>
@@ -5203,9 +5302,17 @@
       <c r="N10" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5246,9 +5353,17 @@
       <c r="N11" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -5290,8 +5405,14 @@
       <c r="O12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5326,9 +5447,17 @@
         <v>1</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -5374,8 +5503,14 @@
       <c r="O14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5412,9 +5547,17 @@
         <v>1</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>36</v>
       </c>
@@ -5460,8 +5603,14 @@
       <c r="O16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5502,9 +5651,17 @@
       <c r="N17" s="3">
         <v>1</v>
       </c>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5543,9 +5700,13 @@
       <c r="N18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5582,9 +5743,17 @@
       <c r="N19" s="3">
         <v>1</v>
       </c>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O19" s="5">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>8</v>
       </c>
@@ -5628,8 +5797,10 @@
       <c r="O20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5670,9 +5841,17 @@
       <c r="N21" s="3">
         <v>1</v>
       </c>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="5">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -5714,8 +5893,14 @@
       <c r="O22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5754,9 +5939,13 @@
       <c r="N23" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="5">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5793,9 +5982,17 @@
         <v>177</v>
       </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="5">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5832,9 +6029,17 @@
       <c r="N25" s="3">
         <v>1</v>
       </c>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="5">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5875,9 +6080,17 @@
       <c r="N26" s="3">
         <v>1</v>
       </c>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="5">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5916,9 +6129,17 @@
       <c r="N27" s="3">
         <v>1</v>
       </c>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="5">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5955,9 +6176,17 @@
         <v>177</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="5">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5988,9 +6217,17 @@
       <c r="L29" s="2"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="5">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -6021,9 +6258,17 @@
       <c r="L30" s="2"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="5">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6069,8 +6314,12 @@
       <c r="O31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>14</v>
       </c>
@@ -6114,8 +6363,14 @@
       <c r="O32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -6156,9 +6411,15 @@
       <c r="N33" s="3">
         <v>1</v>
       </c>
-      <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="5">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -6199,9 +6460,15 @@
       <c r="N34" s="3">
         <v>1</v>
       </c>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="5">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -6242,9 +6509,17 @@
       <c r="N35" s="3">
         <v>1</v>
       </c>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="5">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -6285,9 +6560,17 @@
       <c r="N36" s="3">
         <v>1</v>
       </c>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O36" s="5">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>41</v>
       </c>
@@ -6333,8 +6616,14 @@
       <c r="O37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -6380,8 +6669,14 @@
       <c r="O38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>12</v>
       </c>
@@ -6423,8 +6718,14 @@
       <c r="O39" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>29</v>
       </c>
@@ -6470,8 +6771,14 @@
       <c r="O40" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P40" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -6512,9 +6819,17 @@
       <c r="N41" s="3">
         <v>1</v>
       </c>
-      <c r="O41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="5">
+        <v>1</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -6555,9 +6870,17 @@
       <c r="N42" s="3">
         <v>1</v>
       </c>
-      <c r="O42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="5">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>35</v>
       </c>
@@ -6601,8 +6924,14 @@
       <c r="O43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -6643,9 +6972,15 @@
       <c r="N44" s="3">
         <v>1</v>
       </c>
-      <c r="O44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -6686,9 +7021,15 @@
       <c r="N45" s="3">
         <v>1</v>
       </c>
-      <c r="O45" s="7"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -6730,8 +7071,12 @@
       <c r="O46" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6768,18 +7113,21 @@
       <c r="N47" s="3">
         <v>1</v>
       </c>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="5">
+        <v>1</v>
+      </c>
+      <c r="P47" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="L48" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:O47" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:O46">
       <sortCondition ref="E3:E47"/>
     </sortState>
@@ -6797,18 +7145,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -6818,11 +7166,13 @@
       <c r="C1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>173</v>
       </c>
@@ -6832,11 +7182,13 @@
       <c r="C2" s="3">
         <v>41.2</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3">
+        <v>42.54</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>167</v>
       </c>
@@ -6846,11 +7198,13 @@
       <c r="C3" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3">
+        <v>43</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>166</v>
       </c>
@@ -6860,11 +7214,13 @@
       <c r="C4" s="3">
         <v>38.75</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3">
+        <v>41.8</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>175</v>
       </c>
@@ -6874,11 +7230,13 @@
       <c r="C5" s="3">
         <v>41.12</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3">
+        <v>42.56</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>165</v>
       </c>
@@ -6888,11 +7246,13 @@
       <c r="C6" s="3">
         <v>40.1</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3">
+        <v>41.43</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>163</v>
       </c>
@@ -6902,11 +7262,13 @@
       <c r="C7" s="3">
         <v>35.9</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3">
+        <v>36.92</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>169</v>
       </c>
@@ -6916,11 +7278,13 @@
       <c r="C8" s="3">
         <v>39.57</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3">
+        <v>40.67</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>170</v>
       </c>
@@ -6930,11 +7294,13 @@
       <c r="C9" s="3">
         <v>34.869999999999997</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3">
+        <v>38.36</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>168</v>
       </c>
@@ -6944,11 +7310,13 @@
       <c r="C10" s="3">
         <v>41.7</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3">
+        <v>39.549999999999997</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>171</v>
       </c>
@@ -6958,11 +7326,13 @@
       <c r="C11" s="3">
         <v>38.5</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3">
+        <v>41.13</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>176</v>
       </c>
@@ -6972,11 +7342,13 @@
       <c r="C12" s="3">
         <v>40.9</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3">
+        <v>41.6</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>164</v>
       </c>
@@ -6986,11 +7358,13 @@
       <c r="C13" s="3">
         <v>40.6</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="3">
+        <v>41.11</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>172</v>
       </c>
@@ -7000,11 +7374,13 @@
       <c r="C14" s="3">
         <v>39.46</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3">
+        <v>39.86</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>174</v>
       </c>
@@ -7014,7 +7390,9 @@
       <c r="C15" s="3">
         <v>36.79</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3">
+        <v>40.92</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>

--- a/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D21AFE-8BC0-4379-8B07-879CF127E3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0745BDF-8D70-491D-BA97-D11BADCDD67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="204">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1069,6 +1069,10 @@
   </si>
   <si>
     <t>第四次总体设计汇报（总分55分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五次实现翻转课堂(总分35)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1215,7 +1219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,6 +1273,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7146,7 +7153,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7169,7 +7176,9 @@
       <c r="D1" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -7185,7 +7194,9 @@
       <c r="D2" s="3">
         <v>42.54</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3">
+        <v>26.67</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -7201,7 +7212,9 @@
       <c r="D3" s="3">
         <v>43</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3">
+        <v>27.69</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -7217,7 +7230,9 @@
       <c r="D4" s="3">
         <v>41.8</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3">
+        <v>25.38</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -7233,7 +7248,9 @@
       <c r="D5" s="3">
         <v>42.56</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3">
+        <v>28</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -7249,7 +7266,9 @@
       <c r="D6" s="3">
         <v>41.43</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3">
+        <v>27.67</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -7265,7 +7284,9 @@
       <c r="D7" s="3">
         <v>36.92</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3">
+        <v>27</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -7281,7 +7302,9 @@
       <c r="D8" s="3">
         <v>40.67</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3">
+        <v>26.2</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -7297,7 +7320,9 @@
       <c r="D9" s="3">
         <v>38.36</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3">
+        <v>27.58</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -7313,7 +7338,9 @@
       <c r="D10" s="3">
         <v>39.549999999999997</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3">
+        <v>26.7</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -7329,7 +7356,9 @@
       <c r="D11" s="3">
         <v>41.13</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3">
+        <v>27.38</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -7345,7 +7374,9 @@
       <c r="D12" s="3">
         <v>41.6</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3">
+        <v>26.33</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -7361,7 +7392,9 @@
       <c r="D13" s="3">
         <v>41.11</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3">
+        <v>26.91</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -7377,7 +7410,9 @@
       <c r="D14" s="3">
         <v>39.86</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3">
+        <v>26</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -7393,7 +7428,9 @@
       <c r="D15" s="3">
         <v>40.92</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3">
+        <v>26.21</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
   </sheetData>

--- a/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0745BDF-8D70-491D-BA97-D11BADCDD67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC8C5B8-FDA2-4768-9A34-71ED8B3F4ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1037,10 +1037,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小组作业10.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1（晚四十分钟）</t>
   </si>
   <si>
@@ -1056,10 +1052,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小组作业10.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>晚3小时</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1073,6 +1065,14 @@
   </si>
   <si>
     <t>第五次实现翻转课堂(总分35)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业11.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业11.24</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1250,6 +1250,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,9 +1276,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1606,101 +1606,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="11"/>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="11"/>
+      <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="11"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -3216,31 +3216,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -4838,8 +4838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4859,16 +4859,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -4917,10 +4917,10 @@
         <v>190</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
@@ -5059,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -5155,13 +5155,13 @@
         <v>180</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -5310,13 +5310,13 @@
         <v>179</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -5361,13 +5361,13 @@
         <v>179</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -6322,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
@@ -6422,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q34" s="3"/>
     </row>
@@ -6523,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.4">
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.4">
@@ -6980,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P44" s="3">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P45" s="3">
         <v>1</v>
@@ -7152,7 +7152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -7174,10 +7174,10 @@
         <v>182</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="F1" s="2"/>
     </row>

--- a/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12ED113-07CF-412C-B7D3-6B5E10746281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019C00E4-E07C-4027-A51C-CDE1AD82262D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="207">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1037,12 +1037,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第四次项目设计评审</t>
+    <t>1（晚四十分钟）</t>
+  </si>
+  <si>
+    <t>晚83分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚四个半小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚2分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚3小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚9h44min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次总体设计汇报（总分55分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五次实现翻转课堂(总分35)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业11.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业11.24</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>扣0</t>
+      <t>小组作业1</t>
     </r>
     <r>
       <rPr>
@@ -1053,12 +1088,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.5</t>
+      <t>2.1</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小组作业11.17（详细设计）</t>
+    <t>晚两天提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚一天提交</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1205,7 +1244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1235,6 +1274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1577,115 +1619,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-    </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="11"/>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="11"/>
-    </row>
-    <row r="3" spans="1:19" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="11"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="11"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1744,7 +1786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1775,7 +1817,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1806,7 +1848,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1837,7 +1879,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1868,7 +1910,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1899,7 +1941,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1930,7 +1972,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1961,7 +2003,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1994,7 +2036,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2025,7 +2067,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2058,7 +2100,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2089,7 +2131,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2122,7 +2164,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2153,7 +2195,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2186,7 +2228,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2217,7 +2259,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2248,7 +2290,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2279,7 +2321,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2312,7 +2354,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2343,7 +2385,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2376,7 +2418,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2407,7 +2449,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2438,7 +2480,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2469,7 +2511,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2500,7 +2542,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2531,7 +2573,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2562,7 +2604,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2593,7 +2635,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2624,7 +2666,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2657,7 +2699,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2690,7 +2732,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2721,7 +2763,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2752,7 +2794,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2783,7 +2825,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2814,7 +2856,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2849,7 +2891,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2882,7 +2924,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2915,7 +2957,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2948,7 +2990,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2979,7 +3021,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -3010,7 +3052,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -3043,7 +3085,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -3074,7 +3116,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -3105,7 +3147,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -3136,7 +3178,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -3189,43 +3231,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E054571-BFA3-4C2E-8A90-163875D0870A}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3296,7 +3338,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3329,7 +3371,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3362,7 +3404,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3395,7 +3437,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3428,7 +3470,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3461,7 +3503,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3494,7 +3536,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3527,7 +3569,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3562,7 +3604,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3595,7 +3637,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3630,7 +3672,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3663,7 +3705,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3698,7 +3740,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3731,7 +3773,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3766,7 +3808,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3799,7 +3841,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3832,7 +3874,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3865,7 +3907,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3900,7 +3942,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3933,7 +3975,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3968,7 +4010,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -4001,7 +4043,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -4034,7 +4076,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4067,7 +4109,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4100,7 +4142,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4133,7 +4175,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4166,7 +4208,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4199,7 +4241,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4232,7 +4274,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4267,7 +4309,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4302,7 +4344,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4337,7 +4379,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4370,7 +4412,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4403,7 +4445,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4436,7 +4478,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4471,7 +4513,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4506,7 +4548,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4541,7 +4583,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4576,7 +4618,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4609,7 +4651,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4642,7 +4684,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4677,7 +4719,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4712,7 +4754,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4745,7 +4787,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4776,7 +4818,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4820,38 +4862,41 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="11" width="7.75" customWidth="1"/>
+    <col min="12" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
+    <col min="16" max="16" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4897,11 +4942,17 @@
       <c r="O2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4942,10 +4993,18 @@
       <c r="N3" s="3">
         <v>1</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4972,10 +5031,18 @@
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5016,10 +5083,18 @@
       <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -5060,10 +5135,18 @@
       <c r="N6" s="3">
         <v>1</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5104,10 +5187,18 @@
       <c r="N7" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -5148,10 +5239,18 @@
       <c r="N8" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5192,10 +5291,18 @@
       <c r="N9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>37</v>
       </c>
@@ -5238,12 +5345,20 @@
       <c r="N10" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5284,10 +5399,18 @@
       <c r="N11" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -5329,11 +5452,17 @@
       <c r="O12" s="5">
         <v>1</v>
       </c>
-      <c r="P12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5368,10 +5497,18 @@
         <v>1</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -5417,11 +5554,17 @@
       <c r="O14" s="5">
         <v>1</v>
       </c>
-      <c r="P14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5458,10 +5601,18 @@
         <v>1</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>36</v>
       </c>
@@ -5507,11 +5658,17 @@
       <c r="O16" s="5">
         <v>1</v>
       </c>
-      <c r="P16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5552,10 +5709,18 @@
       <c r="N17" s="3">
         <v>1</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5594,10 +5759,14 @@
       <c r="N18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5634,10 +5803,18 @@
       <c r="N19" s="3">
         <v>1</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O19" s="5">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>8</v>
       </c>
@@ -5681,11 +5858,15 @@
       <c r="O20" s="5">
         <v>1</v>
       </c>
-      <c r="P20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5726,10 +5907,18 @@
       <c r="N21" s="3">
         <v>1</v>
       </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="5">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -5771,11 +5960,17 @@
       <c r="O22" s="5">
         <v>1</v>
       </c>
-      <c r="P22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5814,10 +6009,14 @@
       <c r="N23" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="5">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5854,10 +6053,18 @@
         <v>177</v>
       </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="5">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5894,10 +6101,18 @@
       <c r="N25" s="3">
         <v>1</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="5">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5938,10 +6153,18 @@
       <c r="N26" s="3">
         <v>1</v>
       </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="5">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5980,10 +6203,18 @@
       <c r="N27" s="3">
         <v>1</v>
       </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="5">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -6020,10 +6251,18 @@
         <v>177</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="5">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -6054,10 +6293,18 @@
       <c r="L29" s="2"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="5">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -6088,10 +6335,18 @@
       <c r="L30" s="2"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O30" s="5">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6137,11 +6392,17 @@
       <c r="O31" s="5">
         <v>1</v>
       </c>
-      <c r="P31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>14</v>
       </c>
@@ -6185,11 +6446,17 @@
       <c r="O32" s="5">
         <v>1</v>
       </c>
-      <c r="P32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -6230,10 +6497,16 @@
       <c r="N33" s="3">
         <v>1</v>
       </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="5">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -6274,10 +6547,16 @@
       <c r="N34" s="3">
         <v>1</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-    </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="5">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -6318,10 +6597,18 @@
       <c r="N35" s="3">
         <v>1</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-    </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="5">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -6362,10 +6649,18 @@
       <c r="N36" s="3">
         <v>1</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O36" s="5">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>1</v>
+      </c>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>41</v>
       </c>
@@ -6411,11 +6706,17 @@
       <c r="O37" s="5">
         <v>1</v>
       </c>
-      <c r="P37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="R37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -6461,11 +6762,17 @@
       <c r="O38" s="5">
         <v>1</v>
       </c>
-      <c r="P38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>1</v>
+      </c>
+      <c r="R38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>12</v>
       </c>
@@ -6507,11 +6814,17 @@
       <c r="O39" s="5">
         <v>1</v>
       </c>
-      <c r="P39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>29</v>
       </c>
@@ -6557,11 +6870,17 @@
       <c r="O40" s="5">
         <v>1</v>
       </c>
-      <c r="P40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>1</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -6602,10 +6921,18 @@
       <c r="N41" s="3">
         <v>1</v>
       </c>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-    </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="5">
+        <v>1</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>1</v>
+      </c>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -6646,10 +6973,18 @@
       <c r="N42" s="3">
         <v>1</v>
       </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O42" s="5">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1</v>
+      </c>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>35</v>
       </c>
@@ -6693,11 +7028,17 @@
       <c r="O43" s="5">
         <v>1</v>
       </c>
-      <c r="P43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1</v>
+      </c>
+      <c r="R43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -6738,10 +7079,16 @@
       <c r="N44" s="3">
         <v>1</v>
       </c>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-    </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -6782,10 +7129,16 @@
       <c r="N45" s="3">
         <v>1</v>
       </c>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O45" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -6827,11 +7180,17 @@
       <c r="O46" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6868,10 +7227,18 @@
       <c r="N47" s="3">
         <v>1</v>
       </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O47" s="5">
+        <v>1</v>
+      </c>
+      <c r="P47" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>1</v>
+      </c>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L48" s="1"/>
     </row>
   </sheetData>
@@ -6899,17 +7266,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -6919,13 +7286,15 @@
       <c r="C1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="2"/>
+      <c r="D1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>173</v>
       </c>
@@ -6935,11 +7304,15 @@
       <c r="C2" s="3">
         <v>41.2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="3">
+        <v>42.54</v>
+      </c>
+      <c r="E2" s="3">
+        <v>26.67</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>167</v>
       </c>
@@ -6949,11 +7322,15 @@
       <c r="C3" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="3">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3">
+        <v>27.69</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>166</v>
       </c>
@@ -6963,11 +7340,15 @@
       <c r="C4" s="3">
         <v>38.75</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="3">
+        <v>41.8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>25.38</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>175</v>
       </c>
@@ -6977,11 +7358,15 @@
       <c r="C5" s="3">
         <v>41.12</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="3">
+        <v>42.56</v>
+      </c>
+      <c r="E5" s="3">
+        <v>28</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>165</v>
       </c>
@@ -6991,11 +7376,15 @@
       <c r="C6" s="3">
         <v>40.1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="3">
+        <v>41.43</v>
+      </c>
+      <c r="E6" s="3">
+        <v>27.67</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>163</v>
       </c>
@@ -7005,11 +7394,15 @@
       <c r="C7" s="3">
         <v>35.9</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="3">
+        <v>36.92</v>
+      </c>
+      <c r="E7" s="3">
+        <v>27</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>169</v>
       </c>
@@ -7019,13 +7412,15 @@
       <c r="C8" s="3">
         <v>39.57</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="3">
+        <v>40.67</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26.2</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>170</v>
       </c>
@@ -7035,11 +7430,15 @@
       <c r="C9" s="3">
         <v>34.869999999999997</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="3">
+        <v>38.36</v>
+      </c>
+      <c r="E9" s="3">
+        <v>27.58</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>168</v>
       </c>
@@ -7049,11 +7448,15 @@
       <c r="C10" s="3">
         <v>41.7</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="3">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="E10" s="3">
+        <v>26.7</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>171</v>
       </c>
@@ -7063,11 +7466,15 @@
       <c r="C11" s="3">
         <v>38.5</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="3">
+        <v>41.13</v>
+      </c>
+      <c r="E11" s="3">
+        <v>27.38</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>176</v>
       </c>
@@ -7077,11 +7484,15 @@
       <c r="C12" s="3">
         <v>40.9</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>26.33</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>164</v>
       </c>
@@ -7091,11 +7502,15 @@
       <c r="C13" s="3">
         <v>40.6</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="3">
+        <v>41.11</v>
+      </c>
+      <c r="E13" s="3">
+        <v>26.91</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>172</v>
       </c>
@@ -7105,11 +7520,15 @@
       <c r="C14" s="3">
         <v>39.46</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="3">
+        <v>39.86</v>
+      </c>
+      <c r="E14" s="3">
+        <v>26</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>174</v>
       </c>
@@ -7119,8 +7538,12 @@
       <c r="C15" s="3">
         <v>36.79</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="3">
+        <v>40.92</v>
+      </c>
+      <c r="E15" s="3">
+        <v>26.21</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
   </sheetData>

--- a/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019C00E4-E07C-4027-A51C-CDE1AD82262D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467893AE-6840-465B-A4B1-13B25B41A71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
@@ -1076,28 +1076,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>小组作业1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>晚两天提交</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>晚一天提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小组作业12.1 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4865,7 +4852,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4949,7 +4936,7 @@
         <v>203</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -5355,7 +5342,7 @@
         <v>198</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -5860,10 +5847,10 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -6399,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -6877,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7184,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R46" s="3">
         <v>1</v>

--- a/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467893AE-6840-465B-A4B1-13B25B41A71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C8D158-73A3-4BDD-BE0A-976815C0235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="214">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1085,6 +1085,34 @@
   </si>
   <si>
     <t xml:space="preserve">小组作业12.1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六次维护翻转课堂（总分35）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂问题回答-0.5-0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转课堂演讲-0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂问题回答-0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业12.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚3小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚一天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1606,18 +1634,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="B1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1668,7 @@
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -1677,7 +1705,7 @@
       </c>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1714,7 +1742,7 @@
       </c>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1773,7 +1801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1804,7 +1832,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1835,7 +1863,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1866,7 +1894,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1897,7 +1925,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1928,7 +1956,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1959,7 +1987,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1990,7 +2018,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -2011,7 +2039,9 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2023,7 +2053,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2054,7 +2084,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2087,7 +2117,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2118,7 +2148,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2139,7 +2169,9 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2151,7 +2183,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2182,7 +2214,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2203,7 +2235,9 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2215,7 +2249,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2246,7 +2280,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2277,7 +2311,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2308,7 +2342,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2341,7 +2375,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2372,7 +2406,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2405,7 +2439,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2436,7 +2470,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2467,7 +2501,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2498,7 +2532,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2529,7 +2563,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2560,7 +2594,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2591,7 +2625,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2622,7 +2656,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2653,7 +2687,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2686,7 +2720,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2707,7 +2741,9 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2719,7 +2755,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2750,7 +2786,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2781,7 +2817,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2812,7 +2848,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2843,7 +2879,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2878,7 +2914,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2911,7 +2947,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2944,7 +2980,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2977,7 +3013,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -3008,7 +3044,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -3039,7 +3075,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -3072,7 +3108,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -3103,7 +3139,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -3122,7 +3158,9 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -3134,7 +3172,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -3165,7 +3203,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -3222,12 +3260,12 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>142</v>
       </c>
@@ -3254,7 +3292,7 @@
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3325,7 +3363,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3358,7 +3396,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3391,7 +3429,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3424,7 +3462,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3457,7 +3495,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3490,7 +3528,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3523,7 +3561,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3556,7 +3594,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3591,7 +3629,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3624,7 +3662,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3659,7 +3697,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3692,7 +3730,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3727,7 +3765,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3760,7 +3798,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3795,7 +3833,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3828,7 +3866,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3861,7 +3899,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3894,7 +3932,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3929,7 +3967,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3962,7 +4000,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3997,7 +4035,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -4030,7 +4068,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -4063,7 +4101,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4096,7 +4134,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4129,7 +4167,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4162,7 +4200,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4195,7 +4233,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4228,7 +4266,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4261,7 +4299,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4296,7 +4334,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4331,7 +4369,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4366,7 +4404,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4399,7 +4437,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4432,7 +4470,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4465,7 +4503,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4500,7 +4538,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4535,7 +4573,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4570,7 +4608,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4605,7 +4643,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4638,7 +4676,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4671,7 +4709,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4706,7 +4744,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4741,7 +4779,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4774,7 +4812,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4805,7 +4843,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4848,30 +4886,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="5.375" customWidth="1"/>
-    <col min="11" max="11" width="7.75" customWidth="1"/>
-    <col min="12" max="12" width="9.375" customWidth="1"/>
-    <col min="13" max="13" width="6.625" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-    <col min="16" max="16" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" customWidth="1"/>
+    <col min="7" max="7" width="9.46484375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" customWidth="1"/>
+    <col min="9" max="9" width="9.86328125" customWidth="1"/>
+    <col min="10" max="10" width="5.3984375" customWidth="1"/>
+    <col min="11" max="11" width="7.73046875" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" customWidth="1"/>
+    <col min="13" max="13" width="6.59765625" customWidth="1"/>
+    <col min="14" max="14" width="14.46484375" customWidth="1"/>
+    <col min="15" max="15" width="10.265625" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>143</v>
       </c>
@@ -4883,7 +4920,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4938,8 +4975,11 @@
       <c r="R2" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4990,8 +5030,11 @@
         <v>1</v>
       </c>
       <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -5028,8 +5071,11 @@
         <v>1</v>
       </c>
       <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5080,8 +5126,11 @@
         <v>199</v>
       </c>
       <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -5132,8 +5181,11 @@
         <v>1</v>
       </c>
       <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5184,8 +5236,11 @@
         <v>198</v>
       </c>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -5236,8 +5291,11 @@
         <v>1</v>
       </c>
       <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5288,8 +5346,11 @@
         <v>1</v>
       </c>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>37</v>
       </c>
@@ -5344,8 +5405,11 @@
       <c r="R10" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5396,8 +5460,11 @@
         <v>198</v>
       </c>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -5448,8 +5515,9 @@
       <c r="R12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5494,8 +5562,11 @@
         <v>1</v>
       </c>
       <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -5550,8 +5621,11 @@
       <c r="R14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5598,8 +5672,11 @@
         <v>1</v>
       </c>
       <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>36</v>
       </c>
@@ -5654,8 +5731,11 @@
       <c r="R16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5706,8 +5786,11 @@
         <v>1</v>
       </c>
       <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5752,8 +5835,9 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5800,8 +5884,11 @@
         <v>1</v>
       </c>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>8</v>
       </c>
@@ -5852,8 +5939,9 @@
       <c r="R20" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5904,8 +5992,11 @@
         <v>1</v>
       </c>
       <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -5956,8 +6047,11 @@
       <c r="R22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -6002,8 +6096,9 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -6050,8 +6145,9 @@
         <v>1</v>
       </c>
       <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -6098,8 +6194,11 @@
         <v>1</v>
       </c>
       <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -6150,8 +6249,11 @@
         <v>1</v>
       </c>
       <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -6200,8 +6302,11 @@
         <v>1</v>
       </c>
       <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -6248,8 +6353,9 @@
         <v>1</v>
       </c>
       <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -6290,8 +6396,11 @@
         <v>1</v>
       </c>
       <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -6332,8 +6441,11 @@
         <v>1</v>
       </c>
       <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6388,8 +6500,11 @@
       <c r="R31" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>14</v>
       </c>
@@ -6442,8 +6557,11 @@
       <c r="R32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -6492,8 +6610,11 @@
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -6542,8 +6663,11 @@
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S34" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -6594,8 +6718,11 @@
         <v>199</v>
       </c>
       <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -6646,8 +6773,11 @@
         <v>1</v>
       </c>
       <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>41</v>
       </c>
@@ -6702,8 +6832,11 @@
       <c r="R37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -6758,8 +6891,11 @@
       <c r="R38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>12</v>
       </c>
@@ -6810,8 +6946,11 @@
       <c r="R39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>29</v>
       </c>
@@ -6866,8 +7005,11 @@
       <c r="R40" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -6918,8 +7060,11 @@
         <v>1</v>
       </c>
       <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -6970,8 +7115,11 @@
         <v>1</v>
       </c>
       <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>35</v>
       </c>
@@ -7024,8 +7172,11 @@
       <c r="R43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -7074,8 +7225,11 @@
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -7124,8 +7278,11 @@
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -7176,8 +7333,11 @@
       <c r="R46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -7224,17 +7384,15 @@
         <v>1</v>
       </c>
       <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="L48" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:O47" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:O46">
       <sortCondition ref="E3:E47"/>
     </sortState>
@@ -7253,17 +7411,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -7279,9 +7437,11 @@
       <c r="E1" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>173</v>
       </c>
@@ -7297,9 +7457,11 @@
       <c r="E2" s="3">
         <v>26.67</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="3">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>167</v>
       </c>
@@ -7315,9 +7477,11 @@
       <c r="E3" s="3">
         <v>27.69</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="3">
+        <v>28.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>166</v>
       </c>
@@ -7333,9 +7497,11 @@
       <c r="E4" s="3">
         <v>25.38</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>175</v>
       </c>
@@ -7351,9 +7517,11 @@
       <c r="E5" s="3">
         <v>28</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="3">
+        <v>28.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>165</v>
       </c>
@@ -7369,9 +7537,11 @@
       <c r="E6" s="3">
         <v>27.67</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="3">
+        <v>27.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>163</v>
       </c>
@@ -7387,9 +7557,11 @@
       <c r="E7" s="3">
         <v>27</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="3">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>169</v>
       </c>
@@ -7405,9 +7577,11 @@
       <c r="E8" s="3">
         <v>26.2</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="3">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>170</v>
       </c>
@@ -7423,9 +7597,11 @@
       <c r="E9" s="3">
         <v>27.58</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="3">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>168</v>
       </c>
@@ -7441,9 +7617,11 @@
       <c r="E10" s="3">
         <v>26.7</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="3">
+        <v>28.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>171</v>
       </c>
@@ -7459,9 +7637,11 @@
       <c r="E11" s="3">
         <v>27.38</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="3">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>176</v>
       </c>
@@ -7477,9 +7657,11 @@
       <c r="E12" s="3">
         <v>26.33</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="3">
+        <v>28.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>164</v>
       </c>
@@ -7495,9 +7677,11 @@
       <c r="E13" s="3">
         <v>26.91</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="3">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>172</v>
       </c>
@@ -7513,9 +7697,11 @@
       <c r="E14" s="3">
         <v>26</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="3">
+        <v>27.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>174</v>
       </c>
@@ -7531,7 +7717,9 @@
       <c r="E15" s="3">
         <v>26.21</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="3">
+        <v>28.78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表11.10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C8D158-73A3-4BDD-BE0A-976815C0235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA98BB-AE83-403E-AC51-9DF6E1A9E57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作业情况!$A$2:$O$47</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="216">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1113,6 +1122,14 @@
   </si>
   <si>
     <t>晚一天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七次软件测试评审（总分100）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.25（每人加1分）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4888,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7408,10 +7425,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7421,7 +7438,7 @@
     <col min="3" max="3" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -7440,8 +7457,11 @@
       <c r="F1" s="10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>173</v>
       </c>
@@ -7460,8 +7480,11 @@
       <c r="F2" s="3">
         <v>28.45</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="10">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>167</v>
       </c>
@@ -7480,8 +7503,11 @@
       <c r="F3" s="3">
         <v>28.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>166</v>
       </c>
@@ -7500,8 +7526,11 @@
       <c r="F4" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="10">
+        <v>72.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>175</v>
       </c>
@@ -7520,8 +7549,11 @@
       <c r="F5" s="3">
         <v>28.78</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="10">
+        <v>77.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>165</v>
       </c>
@@ -7540,8 +7572,11 @@
       <c r="F6" s="3">
         <v>27.67</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="10">
+        <v>75.709999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>163</v>
       </c>
@@ -7560,8 +7595,11 @@
       <c r="F7" s="3">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>169</v>
       </c>
@@ -7580,8 +7618,11 @@
       <c r="F8" s="3">
         <v>27.63</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="10">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>170</v>
       </c>
@@ -7600,8 +7641,11 @@
       <c r="F9" s="3">
         <v>28.44</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9" s="10">
+        <v>73.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>168</v>
       </c>
@@ -7620,8 +7664,11 @@
       <c r="F10" s="3">
         <v>28.78</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" s="10">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>171</v>
       </c>
@@ -7640,8 +7687,11 @@
       <c r="F11" s="3">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" s="10">
+        <v>69.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>176</v>
       </c>
@@ -7660,8 +7710,11 @@
       <c r="F12" s="3">
         <v>28.78</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12" s="10">
+        <v>70.709999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>164</v>
       </c>
@@ -7680,8 +7733,11 @@
       <c r="F13" s="3">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13" s="10">
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>172</v>
       </c>
@@ -7700,8 +7756,11 @@
       <c r="F14" s="3">
         <v>27.57</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14" s="10">
+        <v>75.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>174</v>
       </c>
@@ -7719,6 +7778,9 @@
       </c>
       <c r="F15" s="3">
         <v>28.78</v>
+      </c>
+      <c r="G15" s="10">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
